--- a/20 開発資料/03.詳細設計/プロセス概要(21_操作ログ照会).xlsx
+++ b/20 開発資料/03.詳細設計/プロセス概要(21_操作ログ照会).xlsx
@@ -521,10 +521,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインID/処理名/処理日/処理結果</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ログイン者</t>
     <rPh sb="4" eb="5">
       <t>シャ</t>
@@ -561,6 +557,9 @@
       <t>ミドリ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインID/処理名/操作日/処理結果</t>
   </si>
 </sst>
 </file>
@@ -931,26 +930,14 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -964,15 +951,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1028,6 +1015,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1729,121 +1728,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
       <c r="I1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="27"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
       <c r="P1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="45"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="41"/>
+      <c r="AW1" s="41"/>
+      <c r="AX1" s="41"/>
+      <c r="AY1" s="41"/>
+      <c r="AZ1" s="42"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="22" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="22" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="16" t="s">
+      <c r="Q2" s="20"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="18"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="24"/>
       <c r="AJ2" s="14" t="s">
         <v>5</v>
       </c>
       <c r="AK2" s="14"/>
       <c r="AL2" s="14"/>
-      <c r="AM2" s="19">
+      <c r="AM2" s="43">
         <v>41562</v>
       </c>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="21"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="45"/>
       <c r="AR2" s="14" t="s">
         <v>6</v>
       </c>
@@ -1859,55 +1858,55 @@
       <c r="AZ2" s="15"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="14" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="27"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
       <c r="P3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="18"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="24"/>
       <c r="AJ3" s="14" t="s">
         <v>9</v>
       </c>
       <c r="AK3" s="14"/>
       <c r="AL3" s="14"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="20"/>
-      <c r="AO3" s="20"/>
-      <c r="AP3" s="20"/>
-      <c r="AQ3" s="21"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="45"/>
       <c r="AR3" s="14" t="s">
         <v>10</v>
       </c>
@@ -1930,66 +1929,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="28" t="s">
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="32" t="s">
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="33"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="29"/>
+      <c r="AM7" s="29"/>
+      <c r="AN7" s="29"/>
+      <c r="AO7" s="29"/>
+      <c r="AP7" s="29"/>
+      <c r="AQ7" s="29"/>
+      <c r="AR7" s="29"/>
+      <c r="AS7" s="29"/>
+      <c r="AT7" s="29"/>
+      <c r="AU7" s="29"/>
+      <c r="AV7" s="29"/>
+      <c r="AW7" s="29"/>
+      <c r="AX7" s="29"/>
+      <c r="AY7" s="29"/>
+      <c r="AZ7" s="30"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
@@ -3577,14 +3576,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -3601,6 +3592,14 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
     <mergeCell ref="AJ3:AL3"/>
     <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
@@ -3627,121 +3626,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
       <c r="I1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="27"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
       <c r="P1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="45"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="41"/>
+      <c r="AW1" s="41"/>
+      <c r="AX1" s="41"/>
+      <c r="AY1" s="41"/>
+      <c r="AZ1" s="42"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="22" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="22" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="16" t="s">
+      <c r="Q2" s="20"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="18"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="24"/>
       <c r="AJ2" s="14" t="s">
         <v>5</v>
       </c>
       <c r="AK2" s="14"/>
       <c r="AL2" s="14"/>
-      <c r="AM2" s="19">
+      <c r="AM2" s="43">
         <v>41562</v>
       </c>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="21"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="45"/>
       <c r="AR2" s="14" t="s">
         <v>6</v>
       </c>
@@ -3757,55 +3756,55 @@
       <c r="AZ2" s="15"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="14" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="27"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
       <c r="P3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="18"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="24"/>
       <c r="AJ3" s="14" t="s">
         <v>9</v>
       </c>
       <c r="AK3" s="14"/>
       <c r="AL3" s="14"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="20"/>
-      <c r="AO3" s="20"/>
-      <c r="AP3" s="20"/>
-      <c r="AQ3" s="21"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="45"/>
       <c r="AR3" s="14" t="s">
         <v>10</v>
       </c>
@@ -3828,66 +3827,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="28" t="s">
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="32" t="s">
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="33"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="29"/>
+      <c r="AM7" s="29"/>
+      <c r="AN7" s="29"/>
+      <c r="AO7" s="29"/>
+      <c r="AP7" s="29"/>
+      <c r="AQ7" s="29"/>
+      <c r="AR7" s="29"/>
+      <c r="AS7" s="29"/>
+      <c r="AT7" s="29"/>
+      <c r="AU7" s="29"/>
+      <c r="AV7" s="29"/>
+      <c r="AW7" s="29"/>
+      <c r="AX7" s="29"/>
+      <c r="AY7" s="29"/>
+      <c r="AZ7" s="30"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
@@ -5475,14 +5474,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -5499,6 +5490,14 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
     <mergeCell ref="AJ3:AL3"/>
     <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
@@ -5525,121 +5524,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
       <c r="I1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="27"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
       <c r="P1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="45"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="41"/>
+      <c r="AW1" s="41"/>
+      <c r="AX1" s="41"/>
+      <c r="AY1" s="41"/>
+      <c r="AZ1" s="42"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="22" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="22" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="16" t="s">
+      <c r="Q2" s="20"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="18"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="24"/>
       <c r="AJ2" s="14" t="s">
         <v>5</v>
       </c>
       <c r="AK2" s="14"/>
       <c r="AL2" s="14"/>
-      <c r="AM2" s="19">
+      <c r="AM2" s="43">
         <v>41562</v>
       </c>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="21"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="45"/>
       <c r="AR2" s="14" t="s">
         <v>6</v>
       </c>
@@ -5655,55 +5654,55 @@
       <c r="AZ2" s="15"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="14" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="27"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
       <c r="P3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="18"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="24"/>
       <c r="AJ3" s="14" t="s">
         <v>9</v>
       </c>
       <c r="AK3" s="14"/>
       <c r="AL3" s="14"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="20"/>
-      <c r="AO3" s="20"/>
-      <c r="AP3" s="20"/>
-      <c r="AQ3" s="21"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="45"/>
       <c r="AR3" s="14" t="s">
         <v>10</v>
       </c>
@@ -5726,66 +5725,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="28" t="s">
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="32" t="s">
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="33"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="29"/>
+      <c r="AM7" s="29"/>
+      <c r="AN7" s="29"/>
+      <c r="AO7" s="29"/>
+      <c r="AP7" s="29"/>
+      <c r="AQ7" s="29"/>
+      <c r="AR7" s="29"/>
+      <c r="AS7" s="29"/>
+      <c r="AT7" s="29"/>
+      <c r="AU7" s="29"/>
+      <c r="AV7" s="29"/>
+      <c r="AW7" s="29"/>
+      <c r="AX7" s="29"/>
+      <c r="AY7" s="29"/>
+      <c r="AZ7" s="30"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
@@ -6196,7 +6195,7 @@
         <v>44</v>
       </c>
       <c r="O16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
@@ -7368,6 +7367,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -7384,16 +7393,6 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.59055118110236227" footer="0.39370078740157483"/>
@@ -7419,121 +7418,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
       <c r="I1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="27"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
       <c r="P1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="45"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="41"/>
+      <c r="AW1" s="41"/>
+      <c r="AX1" s="41"/>
+      <c r="AY1" s="41"/>
+      <c r="AZ1" s="42"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="22" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="22" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="16" t="s">
+      <c r="Q2" s="20"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="18"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="24"/>
       <c r="AJ2" s="14" t="s">
         <v>5</v>
       </c>
       <c r="AK2" s="14"/>
       <c r="AL2" s="14"/>
-      <c r="AM2" s="19">
+      <c r="AM2" s="43">
         <v>41562</v>
       </c>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="21"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="45"/>
       <c r="AR2" s="14" t="s">
         <v>6</v>
       </c>
@@ -7549,55 +7548,55 @@
       <c r="AZ2" s="15"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="14" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="27"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
       <c r="P3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="18"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="24"/>
       <c r="AJ3" s="14" t="s">
         <v>9</v>
       </c>
       <c r="AK3" s="14"/>
       <c r="AL3" s="14"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="20"/>
-      <c r="AO3" s="20"/>
-      <c r="AP3" s="20"/>
-      <c r="AQ3" s="21"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="45"/>
       <c r="AR3" s="14" t="s">
         <v>10</v>
       </c>
@@ -7620,66 +7619,66 @@
     </row>
     <row r="6" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="28" t="s">
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="32" t="s">
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="33"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="29"/>
+      <c r="AM7" s="29"/>
+      <c r="AN7" s="29"/>
+      <c r="AO7" s="29"/>
+      <c r="AP7" s="29"/>
+      <c r="AQ7" s="29"/>
+      <c r="AR7" s="29"/>
+      <c r="AS7" s="29"/>
+      <c r="AT7" s="29"/>
+      <c r="AU7" s="29"/>
+      <c r="AV7" s="29"/>
+      <c r="AW7" s="29"/>
+      <c r="AX7" s="29"/>
+      <c r="AY7" s="29"/>
+      <c r="AZ7" s="30"/>
     </row>
     <row r="9" spans="1:52" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
@@ -7927,7 +7926,7 @@
         <v>31</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -7936,7 +7935,7 @@
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
@@ -8048,7 +8047,7 @@
       </c>
       <c r="S15" s="2"/>
       <c r="T15" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
@@ -8103,7 +8102,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
@@ -8313,7 +8312,7 @@
         <v>31</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="11"/>
       <c r="P20" s="2"/>
@@ -9061,14 +9060,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:AI2"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:R7"/>
     <mergeCell ref="S7:Z7"/>
@@ -9085,6 +9076,14 @@
     <mergeCell ref="AU3:AZ3"/>
     <mergeCell ref="P3:R3"/>
     <mergeCell ref="S3:AI3"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:AI2"/>
     <mergeCell ref="AJ3:AL3"/>
     <mergeCell ref="AM3:AQ3"/>
   </mergeCells>
